--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takumi.honma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CC1071-F8BA-4CAC-B51F-A959374B03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18A54D-BDFE-4EB8-A0D4-293DDC19FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="256">
   <si>
     <t>Dスコア</t>
     <phoneticPr fontId="1"/>
@@ -1156,22 +1156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ゆかのみ、最後に入力された技がグループ2または3であれば、それをグループ4に変換する</t>
-    <rPh sb="6" eb="8">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・全体の技数が1以下</t>
   </si>
   <si>
@@ -1470,53 +1454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・男子6種目のDスコアの算出ができる。</t>
-    <rPh sb="1" eb="3">
-      <t>ダンシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・演技構成表を出力できる。 (選手情報と演技構成とDスコア(内訳含む)を書いたもの。学生主催の大会で求められることがある。)</t>
-    <rPh sb="1" eb="6">
-      <t>エンギコウセイヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>センシュジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>エンギコウセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ウチワケ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>ガクセイシュサイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非機能要件</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -1745,42 +1682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後方伸身宙返り</t>
-    <rPh sb="0" eb="2">
-      <t>コウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チュウガエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後方伸身宙返り1回ひねり</t>
-    <rPh sb="8" eb="9">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後方かかえ込み2回宙返り</t>
-    <rPh sb="0" eb="2">
-      <t>コウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チュウガエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2064,6 +1965,199 @@
     <t>いくつかのレイアウトを選択できたらいいな～</t>
     <rPh sb="11" eb="13">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・男子6種目のDスコアと技数減点の算出ができる。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ゆかのみ、最後に入力された技がグループ②または③であれば、それをグループ④に変換して技数を数える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方針</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・UI は考慮しない (UI として入力不可能だったとしてもバリデーションは実装する)</t>
+    <rPh sb="5" eb="7">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スワン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スワン1回ひねり</t>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方かかえ込みダブル</t>
+    <rPh sb="0" eb="2">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主な変更点</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・将来的には女子にも対応することを考慮</t>
+    <rPh sb="1" eb="4">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種目の数と種類 (跳馬、段違い平行棒、平均台、ゆか)</t>
+    <rPh sb="0" eb="2">
+      <t>シュモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組合せ加点は段違い平行棒、平均台、ゆかで規定されている</t>
+  </si>
+  <si>
+    <t>跳馬は演技を2回実施する (Dスコアを2回算出する)</t>
+    <rPh sb="0" eb="2">
+      <t>チョウバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ要求加点は構成要求に名称変更</t>
+    <rPh sb="4" eb="8">
+      <t>ヨウキュウカテン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>コウセイヨウキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・演技構成表を出力できる。 (選手情報と演技構成とDスコア(内訳含む)と技数減点を書いたもの。学生主催の大会で審判の負担を減らすために提出を求められることがある。)</t>
+    <rPh sb="1" eb="6">
+      <t>エンギコウセイヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>センシュジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>エンギコウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ギスウゲンテン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>ガクセイシュサイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シンパン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2407,7 +2501,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2479,6 +2573,92 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2488,13 +2668,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2542,18 +2722,30 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,112 +2770,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3455,7 +3543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D4E150-5BAC-411F-996B-588E7FF1F7FC}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3463,47 +3551,77 @@
   <sheetData>
     <row r="2" spans="2:3" ht="25.5">
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="25.5">
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="25.5">
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3646,112 +3764,112 @@
       <c r="AL5" s="27"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="45"/>
     </row>
     <row r="7" spans="1:41" ht="18.75" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="99"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="48"/>
     </row>
     <row r="8" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="48"/>
     </row>
     <row r="9" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H9" s="97"/>
-      <c r="I9" s="100" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="49" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="22"/>
@@ -3760,16 +3878,16 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="98"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="98"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
-      <c r="Y9" s="98"/>
+      <c r="Y9" s="47"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
@@ -3782,11 +3900,11 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="22"/>
       <c r="AK9" s="22"/>
-      <c r="AL9" s="99"/>
+      <c r="AL9" s="48"/>
     </row>
     <row r="10" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H10" s="97"/>
-      <c r="I10" s="100" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="49" t="s">
         <v>63</v>
       </c>
       <c r="J10" s="22"/>
@@ -3795,16 +3913,16 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="98"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="98"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
-      <c r="Y10" s="98"/>
+      <c r="Y10" s="47"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -3817,27 +3935,27 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
-      <c r="AL10" s="99"/>
+      <c r="AL10" s="48"/>
     </row>
     <row r="11" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H11" s="97"/>
-      <c r="I11" s="100"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="98"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="47"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="47"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
@@ -3850,35 +3968,35 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
-      <c r="AL11" s="99"/>
+      <c r="AL11" s="48"/>
     </row>
     <row r="12" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H12" s="97"/>
-      <c r="I12" s="98" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="98"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="98" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98" t="s">
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
@@ -3891,1203 +4009,1203 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
-      <c r="AL12" s="99"/>
+      <c r="AL12" s="48"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H13" s="97"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="99"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="80"/>
+      <c r="AL13" s="48"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H14" s="97"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="101"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="99"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="48"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H15" s="97"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="101"/>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="99"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="48"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
-      <c r="H16" s="97"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="99"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="48"/>
     </row>
     <row r="17" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H17" s="97"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="99"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="48"/>
     </row>
     <row r="18" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H18" s="97"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="101"/>
-      <c r="AJ18" s="101"/>
-      <c r="AK18" s="101"/>
-      <c r="AL18" s="99"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="48"/>
     </row>
     <row r="19" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="104"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="53"/>
     </row>
     <row r="20" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H20" s="105"/>
-      <c r="I20" s="106" t="s">
+      <c r="H20" s="54"/>
+      <c r="I20" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="107"/>
-      <c r="AL20" s="108"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="57"/>
     </row>
     <row r="21" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H21" s="109"/>
-      <c r="I21" s="106" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="108"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="57"/>
     </row>
     <row r="22" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="108"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="57"/>
     </row>
     <row r="23" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H23" s="109"/>
-      <c r="I23" s="111" t="s">
+      <c r="H23" s="58"/>
+      <c r="I23" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="111" t="s">
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="111" t="s">
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="111" t="s">
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="111" t="s">
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="111" t="s">
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="108"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="57"/>
     </row>
     <row r="24" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H24" s="109"/>
-      <c r="I24" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="34" t="s">
+      <c r="H24" s="58"/>
+      <c r="I24" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="34" t="s">
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="34" t="s">
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="34" t="s">
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="108"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="57"/>
     </row>
     <row r="25" spans="2:38" ht="18.75" customHeight="1">
       <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="112" t="s">
+      <c r="H25" s="58"/>
+      <c r="I25" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="113" t="s">
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="108"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="57"/>
     </row>
     <row r="26" spans="2:38" ht="18.75" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="58"/>
+      <c r="I26" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="34" t="s">
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="34" t="s">
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="34" t="s">
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="108"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="57"/>
     </row>
     <row r="27" spans="2:38" ht="18.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="113"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="113" t="s">
+      <c r="H27" s="58"/>
+      <c r="I27" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AI27" s="113"/>
-      <c r="AJ27" s="113"/>
-      <c r="AK27" s="113"/>
-      <c r="AL27" s="108"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="57"/>
     </row>
     <row r="28" spans="2:38" ht="18.75" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="113" t="s">
+      <c r="H28" s="58"/>
+      <c r="I28" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="34" t="s">
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="34" t="s">
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="114"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="114"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="34" t="s">
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="108"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="57"/>
     </row>
     <row r="29" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H29" s="109"/>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="58"/>
+      <c r="I29" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="35" t="s">
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="57"/>
+    </row>
+    <row r="30" spans="2:38" ht="18.75" customHeight="1">
+      <c r="H30" s="58"/>
+      <c r="I30" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="57"/>
+    </row>
+    <row r="31" spans="2:38" ht="18.75" customHeight="1">
+      <c r="H31" s="58"/>
+      <c r="I31" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="57"/>
+    </row>
+    <row r="32" spans="2:38" ht="18.75" customHeight="1">
+      <c r="H32" s="58"/>
+      <c r="I32" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="108"/>
-    </row>
-    <row r="30" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H30" s="109"/>
-      <c r="I30" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="108"/>
-    </row>
-    <row r="31" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H31" s="109"/>
-      <c r="I31" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="108"/>
-    </row>
-    <row r="32" spans="2:38" ht="18.75" customHeight="1">
-      <c r="H32" s="109"/>
-      <c r="I32" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="108"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="57"/>
     </row>
     <row r="33" spans="2:41" ht="18.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="34" t="s">
+      <c r="H33" s="58"/>
+      <c r="I33" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="35" t="s">
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
-      <c r="AL33" s="108"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="57"/>
     </row>
     <row r="34" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H34" s="109"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="58"/>
+      <c r="I34" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="34" t="s">
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="34" t="s">
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="34" t="s">
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="34" t="s">
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="108"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="71"/>
+      <c r="AL34" s="57"/>
     </row>
     <row r="35" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H35" s="109"/>
-      <c r="I35" s="34" t="s">
+      <c r="H35" s="58"/>
+      <c r="I35" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="113" t="s">
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AI35" s="113"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="108"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="57"/>
     </row>
     <row r="36" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H36" s="109"/>
-      <c r="I36" s="113" t="s">
+      <c r="H36" s="58"/>
+      <c r="I36" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="34" t="s">
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="34" t="s">
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="34" t="s">
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="110"/>
-      <c r="AH36" s="34" t="s">
+      <c r="AD36" s="69"/>
+      <c r="AE36" s="69"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="108"/>
+      <c r="AI36" s="69"/>
+      <c r="AJ36" s="69"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="57"/>
     </row>
     <row r="37" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H37" s="109"/>
-      <c r="I37" s="34" t="s">
+      <c r="H37" s="58"/>
+      <c r="I37" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="110"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="110"/>
-      <c r="AH37" s="113" t="s">
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AI37" s="113"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="108"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="57"/>
     </row>
     <row r="38" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H38" s="109"/>
-      <c r="I38" s="113" t="s">
+      <c r="H38" s="58"/>
+      <c r="I38" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="34" t="s">
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="34" t="s">
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="34" t="s">
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="34" t="s">
+      <c r="AD38" s="69"/>
+      <c r="AE38" s="69"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="108"/>
+      <c r="AI38" s="69"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="57"/>
     </row>
     <row r="39" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H39" s="109"/>
-      <c r="I39" s="34" t="s">
+      <c r="H39" s="58"/>
+      <c r="I39" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" s="114"/>
-      <c r="AA39" s="114"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="35" t="s">
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
-      <c r="AL39" s="108"/>
+      <c r="AI39" s="69"/>
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="69"/>
+      <c r="AL39" s="57"/>
     </row>
     <row r="40" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H40" s="109"/>
-      <c r="I40" s="35" t="s">
+      <c r="H40" s="58"/>
+      <c r="I40" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="34" t="s">
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="34" t="s">
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="114"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="34" t="s">
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="34" t="s">
+      <c r="AD40" s="69"/>
+      <c r="AE40" s="69"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="108"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="69"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="57"/>
     </row>
     <row r="41" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H41" s="109"/>
-      <c r="I41" s="34" t="s">
+      <c r="H41" s="58"/>
+      <c r="I41" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="114"/>
-      <c r="Y41" s="114"/>
-      <c r="Z41" s="114"/>
-      <c r="AA41" s="114"/>
-      <c r="AB41" s="110"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="110"/>
-      <c r="AH41" s="35" t="s">
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="108"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="69"/>
+      <c r="AL41" s="57"/>
     </row>
     <row r="42" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H42" s="109"/>
-      <c r="I42" s="35" t="s">
+      <c r="H42" s="58"/>
+      <c r="I42" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="34" t="s">
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="34" t="s">
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="114"/>
-      <c r="Y42" s="114"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="34" t="s">
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="110"/>
-      <c r="AH42" s="34" t="s">
+      <c r="AD42" s="69"/>
+      <c r="AE42" s="69"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="108"/>
+      <c r="AI42" s="69"/>
+      <c r="AJ42" s="69"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="57"/>
     </row>
     <row r="43" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H43" s="109"/>
-      <c r="I43" s="34" t="s">
+      <c r="H43" s="58"/>
+      <c r="I43" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="110"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="114"/>
-      <c r="AG43" s="110"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="114"/>
-      <c r="AJ43" s="114"/>
-      <c r="AK43" s="114"/>
-      <c r="AL43" s="108"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="57"/>
     </row>
     <row r="44" spans="2:41" ht="18.75" customHeight="1">
       <c r="H44" s="29"/>
@@ -5096,20 +5214,20 @@
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="115"/>
-      <c r="S44" s="115"/>
-      <c r="T44" s="115"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
       <c r="U44" s="30"/>
       <c r="V44" s="30"/>
       <c r="W44" s="30"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
       <c r="AB44" s="30"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="30"/>
@@ -5120,193 +5238,193 @@
       <c r="AI44" s="30"/>
       <c r="AJ44" s="30"/>
       <c r="AK44" s="30"/>
-      <c r="AL44" s="117"/>
+      <c r="AL44" s="64"/>
     </row>
     <row r="45" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="114"/>
-      <c r="Y45" s="114"/>
-      <c r="Z45" s="114"/>
-      <c r="AA45" s="114"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="110"/>
-      <c r="AL45" s="108"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="59"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="59"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="59"/>
+      <c r="AL45" s="57"/>
     </row>
     <row r="46" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H46" s="109"/>
-      <c r="I46" s="118" t="s">
+      <c r="H46" s="58"/>
+      <c r="I46" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="119" t="s">
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="M46" s="110"/>
-      <c r="N46" s="118" t="s">
+      <c r="M46" s="59"/>
+      <c r="N46" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="O46" s="110"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="119" t="s">
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="R46" s="107"/>
-      <c r="S46" s="118" t="s">
+      <c r="R46" s="56"/>
+      <c r="S46" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="T46" s="110"/>
-      <c r="U46" s="110"/>
-      <c r="V46" s="119" t="s">
+      <c r="T46" s="59"/>
+      <c r="U46" s="59"/>
+      <c r="V46" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="W46" s="110"/>
-      <c r="X46" s="114"/>
-      <c r="Y46" s="114"/>
-      <c r="Z46" s="114"/>
-      <c r="AA46" s="114"/>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="118" t="s">
+      <c r="W46" s="59"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="59"/>
+      <c r="AC46" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="AD46" s="110"/>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="119" t="s">
+      <c r="AD46" s="59"/>
+      <c r="AE46" s="59"/>
+      <c r="AF46" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="AG46" s="110"/>
-      <c r="AH46" s="118" t="s">
+      <c r="AG46" s="59"/>
+      <c r="AH46" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="AI46" s="110"/>
-      <c r="AJ46" s="110"/>
-      <c r="AK46" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL46" s="108"/>
+      <c r="AI46" s="59"/>
+      <c r="AJ46" s="59"/>
+      <c r="AK46" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL46" s="57"/>
       <c r="AO46" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H47" s="109"/>
-      <c r="I47" s="118" t="s">
+      <c r="H47" s="58"/>
+      <c r="I47" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="119" t="s">
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="M47" s="110"/>
-      <c r="N47" s="118" t="s">
+      <c r="M47" s="59"/>
+      <c r="N47" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="119" t="s">
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="R47" s="107"/>
-      <c r="S47" s="118" t="s">
+      <c r="R47" s="56"/>
+      <c r="S47" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="119" t="s">
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="W47" s="110"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="118" t="s">
+      <c r="W47" s="59"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="119" t="s">
+      <c r="AD47" s="59"/>
+      <c r="AE47" s="59"/>
+      <c r="AF47" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="118" t="s">
+      <c r="AG47" s="59"/>
+      <c r="AH47" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AI47" s="110"/>
-      <c r="AJ47" s="110"/>
-      <c r="AK47" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL47" s="108"/>
+      <c r="AI47" s="59"/>
+      <c r="AJ47" s="59"/>
+      <c r="AK47" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL47" s="57"/>
     </row>
     <row r="48" spans="2:41" ht="18.75" customHeight="1">
-      <c r="H48" s="109"/>
-      <c r="I48" s="118" t="s">
+      <c r="H48" s="58"/>
+      <c r="I48" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="119" t="s">
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="M48" s="110"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="114"/>
-      <c r="AB48" s="114"/>
-      <c r="AC48" s="114"/>
-      <c r="AD48" s="114"/>
-      <c r="AE48" s="114"/>
-      <c r="AF48" s="114"/>
-      <c r="AG48" s="114"/>
-      <c r="AH48" s="118" t="s">
+      <c r="M48" s="59"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AI48" s="110"/>
-      <c r="AJ48" s="110"/>
-      <c r="AK48" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL48" s="108"/>
+      <c r="AI48" s="59"/>
+      <c r="AJ48" s="59"/>
+      <c r="AK48" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL48" s="57"/>
     </row>
     <row r="49" spans="1:38" ht="18.75" customHeight="1">
-      <c r="H49" s="109"/>
+      <c r="H49" s="58"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -5336,7 +5454,7 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="22"/>
       <c r="AK49" s="22"/>
-      <c r="AL49" s="108"/>
+      <c r="AL49" s="57"/>
     </row>
     <row r="50" spans="1:38" ht="18.75" customHeight="1">
       <c r="A50"/>
@@ -5345,61 +5463,61 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="H50" s="109"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-      <c r="L50" s="121" t="s">
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="M50" s="110"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="121" t="s">
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="R50" s="107"/>
+      <c r="R50" s="56"/>
       <c r="S50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="T50" s="110"/>
-      <c r="U50" s="110"/>
-      <c r="V50" s="121" t="s">
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="W50" s="110"/>
+      <c r="W50" s="59"/>
       <c r="X50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Y50" s="110"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="121" t="s">
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AB50" s="110"/>
+      <c r="AB50" s="59"/>
       <c r="AC50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AD50" s="110"/>
-      <c r="AE50" s="110"/>
-      <c r="AF50" s="121" t="s">
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
+      <c r="AF50" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AG50" s="110"/>
+      <c r="AG50" s="59"/>
       <c r="AH50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AI50" s="110"/>
-      <c r="AJ50" s="110"/>
-      <c r="AK50" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL50" s="108"/>
+      <c r="AI50" s="59"/>
+      <c r="AJ50" s="59"/>
+      <c r="AK50" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL50" s="57"/>
     </row>
     <row r="51" spans="1:38" ht="18.75" customHeight="1">
       <c r="A51"/>
@@ -5408,37 +5526,37 @@
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
-      <c r="X51" s="110"/>
-      <c r="Y51" s="110"/>
-      <c r="Z51" s="110"/>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
-      <c r="AH51" s="110"/>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
-      <c r="AL51" s="108"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="59"/>
+      <c r="AJ51" s="59"/>
+      <c r="AK51" s="59"/>
+      <c r="AL51" s="57"/>
     </row>
     <row r="52" spans="1:38" ht="18.75" customHeight="1">
       <c r="A52"/>
@@ -5447,57 +5565,57 @@
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="118" t="s">
+      <c r="H52" s="58"/>
+      <c r="I52" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-      <c r="L52" s="119" t="s">
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="110"/>
-      <c r="N52" s="118" t="s">
+      <c r="M52" s="59"/>
+      <c r="N52" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="119" t="s">
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="107"/>
-      <c r="S52" s="118" t="s">
+      <c r="R52" s="56"/>
+      <c r="S52" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="110"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="119" t="s">
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="110"/>
-      <c r="X52" s="114"/>
-      <c r="Y52" s="114"/>
-      <c r="Z52" s="114"/>
-      <c r="AA52" s="114"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="118" t="s">
+      <c r="W52" s="59"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AD52" s="110"/>
-      <c r="AE52" s="110"/>
-      <c r="AF52" s="119" t="s">
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AG52" s="110"/>
-      <c r="AH52" s="118" t="s">
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AI52" s="110"/>
-      <c r="AJ52" s="110"/>
-      <c r="AK52" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL52" s="108"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL52" s="57"/>
     </row>
     <row r="53" spans="1:38" ht="18.75" customHeight="1">
       <c r="A53"/>
@@ -5506,7 +5624,7 @@
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="H53" s="109"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
@@ -5536,7 +5654,7 @@
       <c r="AI53" s="22"/>
       <c r="AJ53" s="22"/>
       <c r="AK53" s="22"/>
-      <c r="AL53" s="108"/>
+      <c r="AL53" s="57"/>
     </row>
     <row r="54" spans="1:38" ht="18.75" customHeight="1">
       <c r="A54"/>
@@ -5575,7 +5693,7 @@
       <c r="AI54" s="18"/>
       <c r="AJ54" s="18"/>
       <c r="AK54" s="18"/>
-      <c r="AL54" s="104"/>
+      <c r="AL54" s="53"/>
     </row>
     <row r="55" spans="1:38" ht="18.75" customHeight="1">
       <c r="A55"/>
@@ -5584,37 +5702,37 @@
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="122"/>
-      <c r="T55" s="122"/>
-      <c r="U55" s="122"/>
-      <c r="V55" s="122"/>
-      <c r="W55" s="122"/>
-      <c r="X55" s="122"/>
-      <c r="Y55" s="122"/>
-      <c r="Z55" s="122"/>
-      <c r="AA55" s="122"/>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="122"/>
-      <c r="AD55" s="122"/>
-      <c r="AE55" s="122"/>
-      <c r="AF55" s="122"/>
-      <c r="AG55" s="122"/>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="122"/>
-      <c r="AJ55" s="122"/>
-      <c r="AK55" s="122"/>
-      <c r="AL55" s="108"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="22"/>
+      <c r="AI55" s="22"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="57"/>
     </row>
     <row r="56" spans="1:38" ht="18.75" customHeight="1">
       <c r="A56"/>
@@ -5623,39 +5741,39 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="122"/>
-      <c r="T56" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="U56" s="91"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="91"/>
-      <c r="X56" s="91"/>
-      <c r="Y56" s="91"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="122"/>
-      <c r="AF56" s="122"/>
-      <c r="AG56" s="122"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="122"/>
-      <c r="AJ56" s="122"/>
-      <c r="AK56" s="122"/>
-      <c r="AL56" s="108"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="57"/>
     </row>
     <row r="57" spans="1:38" ht="18.75" customHeight="1">
       <c r="A57"/>
@@ -5664,37 +5782,37 @@
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-      <c r="M57" s="122"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="122"/>
-      <c r="W57" s="122"/>
-      <c r="X57" s="122"/>
-      <c r="Y57" s="122"/>
-      <c r="Z57" s="122"/>
-      <c r="AA57" s="122"/>
-      <c r="AB57" s="122"/>
-      <c r="AC57" s="122"/>
-      <c r="AD57" s="122"/>
-      <c r="AE57" s="122"/>
-      <c r="AF57" s="122"/>
-      <c r="AG57" s="122"/>
-      <c r="AH57" s="122"/>
-      <c r="AI57" s="122"/>
-      <c r="AJ57" s="122"/>
-      <c r="AK57" s="122"/>
-      <c r="AL57" s="108"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="22"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="57"/>
     </row>
     <row r="58" spans="1:38" ht="18.75" customHeight="1">
       <c r="A58"/>
@@ -5733,37 +5851,37 @@
       <c r="AI58" s="30"/>
       <c r="AJ58" s="30"/>
       <c r="AK58" s="30"/>
-      <c r="AL58" s="117"/>
+      <c r="AL58" s="64"/>
     </row>
     <row r="61" spans="1:38" ht="18.75" customHeight="1">
-      <c r="AA61" s="93" t="s">
-        <v>242</v>
+      <c r="AA61" s="42" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:38" ht="18.75" customHeight="1">
-      <c r="AA62" s="93"/>
-      <c r="AB62" s="93" t="s">
-        <v>243</v>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="18.75" customHeight="1">
-      <c r="AB63" s="93" t="s">
-        <v>245</v>
+      <c r="AB63" s="42" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:38" ht="18.75" customHeight="1">
-      <c r="AB64" s="93" t="s">
-        <v>246</v>
+      <c r="AB64" s="42" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="28:28" ht="18.75" customHeight="1">
-      <c r="AB65" s="93" t="s">
-        <v>244</v>
+      <c r="AB65" s="42" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="28:28" ht="18.75" customHeight="1">
-      <c r="AB66" s="93" t="s">
-        <v>247</v>
+      <c r="AB66" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5792,7 +5910,6 @@
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I29:L29"/>
     <mergeCell ref="AH42:AK42"/>
     <mergeCell ref="AH33:AK33"/>
     <mergeCell ref="AH34:AK34"/>
@@ -5847,6 +5964,7 @@
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:Q26"/>
     <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="I29:L29"/>
     <mergeCell ref="AH31:AK31"/>
     <mergeCell ref="AH32:AK32"/>
     <mergeCell ref="I32:L32"/>
@@ -5897,7 +6015,7 @@
   <sheetData>
     <row r="3" spans="2:27">
       <c r="B3" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -5914,897 +6032,897 @@
       </c>
     </row>
     <row r="7" spans="2:27">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="55"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
       <c r="W7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="W8" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA7" s="15" t="s">
+      <c r="X8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="34"/>
+      <c r="C9" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="111"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="W9" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="U8" s="59"/>
-      <c r="W8" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y8" s="14" t="s">
+      <c r="X9" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="34"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="W10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Z8" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="56"/>
-      <c r="C9" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="59"/>
-      <c r="W9" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA9" s="14" t="s">
+      <c r="AA10" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="34"/>
+      <c r="C11" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="37"/>
+      <c r="W11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="56"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="59"/>
-      <c r="W10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Z11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="34"/>
+      <c r="C12" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="99"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="99"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="37"/>
+      <c r="W12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="25.5">
+      <c r="B13" s="34"/>
+      <c r="C13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="37"/>
+      <c r="W13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X13" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="Y13" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="AA10" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="56"/>
-      <c r="C11" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="59"/>
-      <c r="W11" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="56"/>
-      <c r="C12" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" s="69"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="59"/>
-      <c r="W12" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="25.5">
-      <c r="B13" s="56"/>
-      <c r="C13" s="71" t="s">
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="34"/>
+      <c r="C14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" s="105"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="37"/>
+    </row>
+    <row r="15" spans="2:27" ht="25.5">
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="S15" s="96"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="34"/>
+      <c r="C16" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" s="99"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" spans="2:21" ht="25.5">
+      <c r="B17" s="34"/>
+      <c r="C17" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="71" t="s">
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="71" t="s">
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="71" t="s">
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="71" t="s">
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="71" t="s">
+      <c r="S17" s="102"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="37"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="34"/>
+      <c r="C18" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="105"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="105"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="2:21" ht="25.5">
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="S19" s="96"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="34"/>
+      <c r="C20" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="37"/>
+    </row>
+    <row r="21" spans="2:21" ht="25.5">
+      <c r="B21" s="34"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="59"/>
-      <c r="W13" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="56"/>
-      <c r="C14" s="74" t="s">
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="102"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="37"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="34"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="74" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="74" t="s">
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="74" t="s">
+      <c r="M22" s="105"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="74" t="s">
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="37"/>
+    </row>
+    <row r="23" spans="2:21" ht="25.5">
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="37"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="34"/>
+      <c r="C24" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="99"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="37"/>
+    </row>
+    <row r="25" spans="2:21" ht="25.5">
+      <c r="B25" s="34"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="102"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="37"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="34"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="74" t="s">
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="S14" s="75"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="59"/>
-    </row>
-    <row r="15" spans="2:27" ht="25.5">
-      <c r="B15" s="56"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="80" t="s">
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="S26" s="105"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="37"/>
+    </row>
+    <row r="27" spans="2:21" ht="25.5">
+      <c r="B27" s="34"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="59"/>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="56"/>
-      <c r="C16" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="69"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="59"/>
-    </row>
-    <row r="17" spans="2:21" ht="25.5">
-      <c r="B17" s="56"/>
-      <c r="C17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="59"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="56"/>
-      <c r="C18" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="59"/>
-    </row>
-    <row r="19" spans="2:21" ht="25.5">
-      <c r="B19" s="56"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="S19" s="81"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="59"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="56"/>
-      <c r="C20" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="69"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="59"/>
-    </row>
-    <row r="21" spans="2:21" ht="25.5">
-      <c r="B21" s="56"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="59"/>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="56"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="59"/>
-    </row>
-    <row r="23" spans="2:21" ht="25.5">
-      <c r="B23" s="56"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="59"/>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="56"/>
-      <c r="C24" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="S24" s="69"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="59"/>
-    </row>
-    <row r="25" spans="2:21" ht="25.5">
-      <c r="B25" s="56"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="S25" s="72"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="59"/>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="56"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="59"/>
-    </row>
-    <row r="27" spans="2:21" ht="25.5">
-      <c r="B27" s="56"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="S27" s="81"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="59"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="37"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="77"/>
-      <c r="C28" s="83" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="83" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="83" t="s">
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="83" t="s">
+      <c r="J28" s="108"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="83" t="s">
+      <c r="M28" s="108"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="83" t="s">
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="84"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="79"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="40"/>
     </row>
     <row r="32" spans="2:21">
       <c r="E32" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="5:15">
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="55"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
     </row>
     <row r="36" spans="5:15">
-      <c r="E36" s="56"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="58" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="O36" s="59"/>
+      <c r="O36" s="37"/>
     </row>
     <row r="37" spans="5:15">
-      <c r="E37" s="56"/>
-      <c r="F37" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="59"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="37"/>
     </row>
     <row r="38" spans="5:15">
-      <c r="E38" s="56"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="59"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="37"/>
     </row>
     <row r="39" spans="5:15">
-      <c r="E39" s="56"/>
-      <c r="F39" s="68" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="68" t="s">
+      <c r="G39" s="99"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="68" t="s">
+      <c r="J39" s="99"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="59"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="37"/>
     </row>
     <row r="40" spans="5:15" ht="25.5">
-      <c r="E40" s="56"/>
-      <c r="F40" s="71" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="88"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="71" t="s">
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="J40" s="88"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="71" t="s">
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="88"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="59"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" spans="5:15">
-      <c r="E41" s="56"/>
-      <c r="F41" s="74" t="s">
+      <c r="E41" s="34"/>
+      <c r="F41" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="74" t="s">
+      <c r="G41" s="105"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="J41" s="89"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="74" t="s">
+      <c r="J41" s="105"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="89"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="59"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="5:15">
-      <c r="E42" s="56"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="59"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="5:15">
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="79"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="101">
@@ -6948,50 +7066,50 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="118" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="96">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="7" t="s">
         <v>88</v>
       </c>
@@ -7043,9 +7161,9 @@
       <c r="U3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
     </row>
     <row r="4" spans="1:24">
       <c r="B4" s="8">
@@ -7223,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -7414,12 +7532,12 @@
     </row>
     <row r="12" spans="1:24">
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="B13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7440,120 +7558,130 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C0E9A8-212E-4949-AD6E-A2939FBABC6A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5">
+    <row r="2" spans="1:2" ht="25.5">
       <c r="B2" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25.5">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5">
+      <c r="B10" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
-      <c r="B6" s="4" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="E16" t="s">
+    <row r="21" spans="2:11">
+      <c r="E21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K21" t="s">
         <v>214</v>
       </c>
-      <c r="J16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="22" spans="2:11">
+      <c r="E22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="E24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="E25" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>217</v>
-      </c>
-      <c r="J18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7677,37 +7805,37 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="25.5">
@@ -7745,7 +7873,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -7805,7 +7933,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -7912,12 +8040,12 @@
     </row>
     <row r="6" spans="1:7" ht="25.5">
       <c r="B6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7925,15 +8053,15 @@
         <v>56</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takumi.honma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18A54D-BDFE-4EB8-A0D4-293DDC19FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AA104-8171-4A0F-9FA2-FB56E547BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設計方針" sheetId="10" r:id="rId1"/>
@@ -2647,27 +2647,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2704,6 +2683,18 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2725,14 +2716,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2768,6 +2759,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3162,15 +3162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>201705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3185,8 +3185,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6992471" y="1142999"/>
-          <a:ext cx="1535205" cy="896472"/>
+          <a:off x="6902824" y="1848970"/>
+          <a:ext cx="1624852" cy="851648"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3222,13 +3222,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4013,35 +4013,35 @@
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
       <c r="H13" s="46"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="80"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="73"/>
       <c r="P13" s="50"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="80"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="50"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="80"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="73"/>
       <c r="AL13" s="48"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
@@ -4114,68 +4114,68 @@
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
       <c r="H16" s="46"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="84"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="77"/>
       <c r="AL16" s="48"/>
     </row>
     <row r="17" spans="2:38" ht="18.75" customHeight="1">
       <c r="H17" s="46"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="87"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="80"/>
       <c r="AL17" s="48"/>
     </row>
     <row r="18" spans="2:38" ht="18.75" customHeight="1">
@@ -4394,47 +4394,47 @@
     </row>
     <row r="24" spans="2:38" ht="18.75" customHeight="1">
       <c r="H24" s="58"/>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
       <c r="M24" s="59"/>
-      <c r="N24" s="70" t="s">
+      <c r="N24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="71"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
       <c r="R24" s="59"/>
-      <c r="S24" s="70" t="s">
+      <c r="S24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="71"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="83"/>
       <c r="W24" s="59"/>
-      <c r="X24" s="70" t="s">
+      <c r="X24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="71"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="83"/>
       <c r="AB24" s="59"/>
-      <c r="AC24" s="70" t="s">
+      <c r="AC24" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="71"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="83"/>
       <c r="AG24" s="59"/>
-      <c r="AH24" s="70" t="s">
+      <c r="AH24" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="71"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="83"/>
       <c r="AL24" s="57"/>
     </row>
     <row r="25" spans="2:38" ht="18.75" customHeight="1">
@@ -4442,39 +4442,39 @@
         <v>58</v>
       </c>
       <c r="H25" s="58"/>
-      <c r="I25" s="94" t="s">
+      <c r="I25" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
       <c r="R25" s="59"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
       <c r="W25" s="59"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="61"/>
       <c r="Z25" s="61"/>
       <c r="AA25" s="61"/>
       <c r="AB25" s="59"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
       <c r="AG25" s="59"/>
-      <c r="AH25" s="72" t="s">
+      <c r="AH25" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
       <c r="AL25" s="57"/>
     </row>
     <row r="26" spans="2:38" ht="18.75" customHeight="1">
@@ -4482,45 +4482,45 @@
         <v>12</v>
       </c>
       <c r="H26" s="58"/>
-      <c r="I26" s="88" t="s">
+      <c r="I26" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="70" t="s">
+      <c r="N26" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="71"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="83"/>
       <c r="R26" s="59"/>
-      <c r="S26" s="70" t="s">
+      <c r="S26" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="71"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="83"/>
       <c r="W26" s="59"/>
       <c r="X26" s="61"/>
       <c r="Y26" s="61"/>
       <c r="Z26" s="61"/>
       <c r="AA26" s="61"/>
       <c r="AB26" s="59"/>
-      <c r="AC26" s="70" t="s">
+      <c r="AC26" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="71"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="83"/>
       <c r="AG26" s="59"/>
-      <c r="AH26" s="70" t="s">
+      <c r="AH26" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="71"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="83"/>
       <c r="AL26" s="57"/>
     </row>
     <row r="27" spans="2:38" ht="18.75" customHeight="1">
@@ -4528,39 +4528,39 @@
         <v>75</v>
       </c>
       <c r="H27" s="58"/>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="59"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
       <c r="R27" s="59"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
       <c r="W27" s="59"/>
       <c r="X27" s="61"/>
       <c r="Y27" s="61"/>
       <c r="Z27" s="61"/>
       <c r="AA27" s="61"/>
       <c r="AB27" s="59"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
       <c r="AG27" s="59"/>
-      <c r="AH27" s="72" t="s">
+      <c r="AH27" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
       <c r="AL27" s="57"/>
     </row>
     <row r="28" spans="2:38" ht="18.75" customHeight="1">
@@ -4568,205 +4568,205 @@
         <v>57</v>
       </c>
       <c r="H28" s="58"/>
-      <c r="I28" s="72" t="s">
+      <c r="I28" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="71"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="70" t="s">
+      <c r="S28" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="71"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="83"/>
       <c r="W28" s="59"/>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
       <c r="Z28" s="61"/>
       <c r="AA28" s="61"/>
       <c r="AB28" s="59"/>
-      <c r="AC28" s="70" t="s">
+      <c r="AC28" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="71"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="83"/>
       <c r="AG28" s="59"/>
-      <c r="AH28" s="70" t="s">
+      <c r="AH28" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="71"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="83"/>
       <c r="AL28" s="57"/>
     </row>
     <row r="29" spans="2:38" ht="18.75" customHeight="1">
       <c r="H29" s="58"/>
-      <c r="I29" s="70" t="s">
+      <c r="I29" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="71"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="59"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
       <c r="R29" s="59"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
       <c r="W29" s="59"/>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
       <c r="Z29" s="61"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="59"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
       <c r="AG29" s="59"/>
-      <c r="AH29" s="69" t="s">
+      <c r="AH29" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
       <c r="AL29" s="57"/>
     </row>
     <row r="30" spans="2:38" ht="18.75" customHeight="1">
       <c r="H30" s="58"/>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
       <c r="M30" s="59"/>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="71"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="83"/>
       <c r="R30" s="59"/>
-      <c r="S30" s="70" t="s">
+      <c r="S30" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="71"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="83"/>
       <c r="W30" s="59"/>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
       <c r="Z30" s="61"/>
       <c r="AA30" s="61"/>
       <c r="AB30" s="59"/>
-      <c r="AC30" s="70" t="s">
+      <c r="AC30" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="71"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="83"/>
       <c r="AG30" s="59"/>
-      <c r="AH30" s="70" t="s">
+      <c r="AH30" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="71"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="83"/>
       <c r="AL30" s="57"/>
     </row>
     <row r="31" spans="2:38" ht="18.75" customHeight="1">
       <c r="H31" s="58"/>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="71"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83"/>
       <c r="M31" s="59"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
       <c r="R31" s="59"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
       <c r="W31" s="59"/>
       <c r="X31" s="61"/>
       <c r="Y31" s="61"/>
       <c r="Z31" s="61"/>
       <c r="AA31" s="61"/>
       <c r="AB31" s="59"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
       <c r="AG31" s="59"/>
-      <c r="AH31" s="69" t="s">
+      <c r="AH31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
       <c r="AL31" s="57"/>
     </row>
     <row r="32" spans="2:38" ht="18.75" customHeight="1">
       <c r="H32" s="58"/>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="71"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="83"/>
       <c r="R32" s="56"/>
-      <c r="S32" s="70" t="s">
+      <c r="S32" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="71"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="83"/>
       <c r="W32" s="56"/>
       <c r="X32" s="61"/>
       <c r="Y32" s="61"/>
       <c r="Z32" s="61"/>
       <c r="AA32" s="61"/>
       <c r="AB32" s="56"/>
-      <c r="AC32" s="70" t="s">
+      <c r="AC32" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="71"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="83"/>
       <c r="AG32" s="59"/>
-      <c r="AH32" s="70" t="s">
+      <c r="AH32" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="71"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="83"/>
       <c r="AL32" s="57"/>
     </row>
     <row r="33" spans="2:41" ht="18.75" customHeight="1">
@@ -4774,412 +4774,412 @@
         <v>105</v>
       </c>
       <c r="H33" s="58"/>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="71"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="83"/>
       <c r="M33" s="59"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
       <c r="R33" s="59"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
       <c r="W33" s="59"/>
       <c r="X33" s="61"/>
       <c r="Y33" s="61"/>
       <c r="Z33" s="61"/>
       <c r="AA33" s="61"/>
       <c r="AB33" s="59"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
       <c r="AG33" s="59"/>
-      <c r="AH33" s="69" t="s">
+      <c r="AH33" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="82"/>
+      <c r="AK33" s="82"/>
       <c r="AL33" s="57"/>
     </row>
     <row r="34" spans="2:41" ht="18.75" customHeight="1">
       <c r="H34" s="58"/>
-      <c r="I34" s="69" t="s">
+      <c r="I34" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="56"/>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="71"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
       <c r="R34" s="56"/>
-      <c r="S34" s="70" t="s">
+      <c r="S34" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="71"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="83"/>
       <c r="W34" s="56"/>
       <c r="X34" s="61"/>
       <c r="Y34" s="61"/>
       <c r="Z34" s="61"/>
       <c r="AA34" s="61"/>
       <c r="AB34" s="56"/>
-      <c r="AC34" s="70" t="s">
+      <c r="AC34" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="71"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="83"/>
       <c r="AG34" s="59"/>
-      <c r="AH34" s="70" t="s">
+      <c r="AH34" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="71"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="83"/>
       <c r="AL34" s="57"/>
     </row>
     <row r="35" spans="2:41" ht="18.75" customHeight="1">
       <c r="H35" s="58"/>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="71"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
       <c r="M35" s="59"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
       <c r="R35" s="56"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
       <c r="W35" s="59"/>
       <c r="X35" s="61"/>
       <c r="Y35" s="61"/>
       <c r="Z35" s="61"/>
       <c r="AA35" s="61"/>
       <c r="AB35" s="59"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
       <c r="AG35" s="59"/>
-      <c r="AH35" s="72" t="s">
+      <c r="AH35" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
+      <c r="AI35" s="84"/>
+      <c r="AJ35" s="84"/>
+      <c r="AK35" s="84"/>
       <c r="AL35" s="57"/>
     </row>
     <row r="36" spans="2:41" ht="18.75" customHeight="1">
       <c r="H36" s="58"/>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="70" t="s">
+      <c r="N36" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="71"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
       <c r="R36" s="56"/>
-      <c r="S36" s="70" t="s">
+      <c r="S36" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="71"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="83"/>
       <c r="W36" s="59"/>
       <c r="X36" s="61"/>
       <c r="Y36" s="61"/>
       <c r="Z36" s="61"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="59"/>
-      <c r="AC36" s="70" t="s">
+      <c r="AC36" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="71"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="82"/>
+      <c r="AF36" s="83"/>
       <c r="AG36" s="59"/>
-      <c r="AH36" s="70" t="s">
+      <c r="AH36" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="71"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="82"/>
+      <c r="AK36" s="83"/>
       <c r="AL36" s="57"/>
     </row>
     <row r="37" spans="2:41" ht="18.75" customHeight="1">
       <c r="H37" s="58"/>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="71"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="83"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
       <c r="R37" s="56"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
       <c r="W37" s="59"/>
       <c r="X37" s="61"/>
       <c r="Y37" s="61"/>
       <c r="Z37" s="61"/>
       <c r="AA37" s="61"/>
       <c r="AB37" s="59"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
+      <c r="AC37" s="84"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="84"/>
       <c r="AG37" s="59"/>
-      <c r="AH37" s="72" t="s">
+      <c r="AH37" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="72"/>
+      <c r="AI37" s="84"/>
+      <c r="AJ37" s="84"/>
+      <c r="AK37" s="84"/>
       <c r="AL37" s="57"/>
     </row>
     <row r="38" spans="2:41" ht="18.75" customHeight="1">
       <c r="H38" s="58"/>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="70" t="s">
+      <c r="N38" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="71"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="83"/>
       <c r="R38" s="56"/>
-      <c r="S38" s="70" t="s">
+      <c r="S38" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="71"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="83"/>
       <c r="W38" s="59"/>
       <c r="X38" s="61"/>
       <c r="Y38" s="61"/>
       <c r="Z38" s="61"/>
       <c r="AA38" s="61"/>
       <c r="AB38" s="59"/>
-      <c r="AC38" s="70" t="s">
+      <c r="AC38" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="71"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="83"/>
       <c r="AG38" s="59"/>
-      <c r="AH38" s="70" t="s">
+      <c r="AH38" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="71"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="83"/>
       <c r="AL38" s="57"/>
     </row>
     <row r="39" spans="2:41" ht="18.75" customHeight="1">
       <c r="H39" s="58"/>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="71"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="83"/>
       <c r="M39" s="59"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
       <c r="R39" s="56"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
       <c r="W39" s="59"/>
       <c r="X39" s="61"/>
       <c r="Y39" s="61"/>
       <c r="Z39" s="61"/>
       <c r="AA39" s="61"/>
       <c r="AB39" s="59"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
       <c r="AG39" s="59"/>
-      <c r="AH39" s="69" t="s">
+      <c r="AH39" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
+      <c r="AI39" s="82"/>
+      <c r="AJ39" s="82"/>
+      <c r="AK39" s="82"/>
       <c r="AL39" s="57"/>
     </row>
     <row r="40" spans="2:41" ht="18.75" customHeight="1">
       <c r="H40" s="58"/>
-      <c r="I40" s="69" t="s">
+      <c r="I40" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
       <c r="M40" s="59"/>
-      <c r="N40" s="70" t="s">
+      <c r="N40" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="71"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
       <c r="R40" s="56"/>
-      <c r="S40" s="70" t="s">
+      <c r="S40" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="71"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="83"/>
       <c r="W40" s="59"/>
       <c r="X40" s="61"/>
       <c r="Y40" s="61"/>
       <c r="Z40" s="61"/>
       <c r="AA40" s="61"/>
       <c r="AB40" s="59"/>
-      <c r="AC40" s="70" t="s">
+      <c r="AC40" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="71"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="82"/>
+      <c r="AF40" s="83"/>
       <c r="AG40" s="59"/>
-      <c r="AH40" s="70" t="s">
+      <c r="AH40" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="69"/>
-      <c r="AK40" s="71"/>
+      <c r="AI40" s="82"/>
+      <c r="AJ40" s="82"/>
+      <c r="AK40" s="83"/>
       <c r="AL40" s="57"/>
     </row>
     <row r="41" spans="2:41" ht="18.75" customHeight="1">
       <c r="H41" s="58"/>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="71"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="83"/>
       <c r="M41" s="59"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
       <c r="R41" s="56"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="84"/>
       <c r="W41" s="59"/>
       <c r="X41" s="61"/>
       <c r="Y41" s="61"/>
       <c r="Z41" s="61"/>
       <c r="AA41" s="61"/>
       <c r="AB41" s="59"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="72"/>
-      <c r="AF41" s="72"/>
+      <c r="AC41" s="84"/>
+      <c r="AD41" s="84"/>
+      <c r="AE41" s="84"/>
+      <c r="AF41" s="84"/>
       <c r="AG41" s="59"/>
-      <c r="AH41" s="69" t="s">
+      <c r="AH41" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="69"/>
+      <c r="AI41" s="82"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="82"/>
       <c r="AL41" s="57"/>
     </row>
     <row r="42" spans="2:41" ht="18.75" customHeight="1">
       <c r="H42" s="58"/>
-      <c r="I42" s="69" t="s">
+      <c r="I42" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
       <c r="M42" s="59"/>
-      <c r="N42" s="70" t="s">
+      <c r="N42" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="71"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="83"/>
       <c r="R42" s="56"/>
-      <c r="S42" s="70" t="s">
+      <c r="S42" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="71"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="83"/>
       <c r="W42" s="59"/>
       <c r="X42" s="61"/>
       <c r="Y42" s="61"/>
       <c r="Z42" s="61"/>
       <c r="AA42" s="61"/>
       <c r="AB42" s="59"/>
-      <c r="AC42" s="70" t="s">
+      <c r="AC42" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="69"/>
-      <c r="AF42" s="71"/>
+      <c r="AD42" s="82"/>
+      <c r="AE42" s="82"/>
+      <c r="AF42" s="83"/>
       <c r="AG42" s="59"/>
-      <c r="AH42" s="70" t="s">
+      <c r="AH42" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="71"/>
+      <c r="AI42" s="82"/>
+      <c r="AJ42" s="82"/>
+      <c r="AK42" s="83"/>
       <c r="AL42" s="57"/>
     </row>
     <row r="43" spans="2:41" ht="18.75" customHeight="1">
       <c r="H43" s="58"/>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="71"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="59"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
@@ -5753,15 +5753,15 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
-      <c r="T56" s="76" t="s">
+      <c r="T56" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="U56" s="77"/>
-      <c r="V56" s="77"/>
-      <c r="W56" s="77"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="77"/>
-      <c r="Z56" s="78"/>
+      <c r="U56" s="70"/>
+      <c r="V56" s="70"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="70"/>
+      <c r="Y56" s="70"/>
+      <c r="Z56" s="71"/>
       <c r="AA56" s="22"/>
       <c r="AB56" s="22"/>
       <c r="AC56" s="22"/>
@@ -5886,6 +5886,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="AH42:AK42"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AH37:AK37"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
     <mergeCell ref="T56:Z56"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="L13:O13"/>
@@ -5910,85 +5989,6 @@
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="AH42:AK42"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AH37:AK37"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AH25:AK25"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AH27:AK27"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S30:V30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5998,7 +5998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F1EDD6-E0E9-410D-B18A-449695E9AF19}">
-  <dimension ref="B3:AA43"/>
+  <dimension ref="B2:AA46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -6013,1024 +6013,1032 @@
     <col min="28" max="16384" width="6.625" style="11"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:27">
+      <c r="W2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="11" t="s">
+      <c r="W3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="W4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="W5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="11" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="4" spans="2:27">
-      <c r="B4" s="12" t="s">
+      <c r="W6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:27">
-      <c r="B5" s="11" t="s">
+      <c r="W7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
-      <c r="W7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="U8" s="37"/>
       <c r="W8" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="34"/>
-      <c r="C9" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="37"/>
-      <c r="W9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA9" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:27">
-      <c r="B10" s="34"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="37"/>
-      <c r="W10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA10" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="2:27">
       <c r="B11" s="34"/>
-      <c r="C11" s="116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="U11" s="37"/>
-      <c r="W11" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="12" spans="2:27">
       <c r="B12" s="34"/>
-      <c r="C12" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
+      <c r="C12" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="37"/>
-      <c r="W12" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="25.5">
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="34"/>
-      <c r="C13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" s="102"/>
-      <c r="T13" s="103"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="37"/>
-      <c r="W13" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="14" spans="2:27">
       <c r="B14" s="34"/>
-      <c r="C14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="S14" s="105"/>
-      <c r="T14" s="106"/>
+      <c r="C14" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
       <c r="U14" s="37"/>
     </row>
-    <row r="15" spans="2:27" ht="25.5">
+    <row r="15" spans="2:27">
       <c r="B15" s="34"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="C15" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
       <c r="R15" s="95" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="S15" s="96"/>
       <c r="T15" s="97"/>
       <c r="U15" s="37"/>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" ht="25.5">
       <c r="B16" s="34"/>
       <c r="C16" s="98" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="100"/>
       <c r="F16" s="98" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
       <c r="I16" s="98" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J16" s="99"/>
       <c r="K16" s="100"/>
       <c r="L16" s="98" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M16" s="99"/>
       <c r="N16" s="100"/>
       <c r="O16" s="98" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="P16" s="99"/>
       <c r="Q16" s="100"/>
       <c r="R16" s="98" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="S16" s="99"/>
       <c r="T16" s="100"/>
       <c r="U16" s="37"/>
     </row>
-    <row r="17" spans="2:21" ht="25.5">
+    <row r="17" spans="2:21">
       <c r="B17" s="34"/>
       <c r="C17" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="103"/>
       <c r="F17" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="102"/>
       <c r="H17" s="103"/>
-      <c r="I17" s="101"/>
+      <c r="I17" s="101" t="s">
+        <v>111</v>
+      </c>
       <c r="J17" s="102"/>
       <c r="K17" s="103"/>
       <c r="L17" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="102"/>
       <c r="N17" s="103"/>
       <c r="O17" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="102"/>
       <c r="Q17" s="103"/>
       <c r="R17" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S17" s="102"/>
       <c r="T17" s="103"/>
       <c r="U17" s="37"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" ht="25.5">
       <c r="B18" s="34"/>
-      <c r="C18" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="105"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="S18" s="105"/>
-      <c r="T18" s="106"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="116"/>
+      <c r="T18" s="117"/>
       <c r="U18" s="37"/>
     </row>
-    <row r="19" spans="2:21" ht="25.5">
+    <row r="19" spans="2:21">
       <c r="B19" s="34"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
+      <c r="C19" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="96"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
       <c r="R19" s="95" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="S19" s="96"/>
       <c r="T19" s="97"/>
       <c r="U19" s="37"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" ht="25.5">
       <c r="B20" s="34"/>
       <c r="C20" s="98" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="100"/>
       <c r="F20" s="98" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
-      <c r="I20" s="98" t="s">
-        <v>130</v>
-      </c>
+      <c r="I20" s="98"/>
       <c r="J20" s="99"/>
       <c r="K20" s="100"/>
       <c r="L20" s="98" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M20" s="99"/>
       <c r="N20" s="100"/>
       <c r="O20" s="98" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P20" s="99"/>
       <c r="Q20" s="100"/>
       <c r="R20" s="98" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="S20" s="99"/>
       <c r="T20" s="100"/>
       <c r="U20" s="37"/>
     </row>
-    <row r="21" spans="2:21" ht="25.5">
+    <row r="21" spans="2:21">
       <c r="B21" s="34"/>
-      <c r="C21" s="101"/>
+      <c r="C21" s="101" t="s">
+        <v>111</v>
+      </c>
       <c r="D21" s="102"/>
       <c r="E21" s="103"/>
       <c r="F21" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="102"/>
       <c r="H21" s="103"/>
-      <c r="I21" s="101" t="s">
-        <v>110</v>
-      </c>
+      <c r="I21" s="101"/>
       <c r="J21" s="102"/>
       <c r="K21" s="103"/>
       <c r="L21" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M21" s="102"/>
       <c r="N21" s="103"/>
       <c r="O21" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" s="102"/>
       <c r="Q21" s="103"/>
-      <c r="R21" s="101"/>
+      <c r="R21" s="101" t="s">
+        <v>111</v>
+      </c>
       <c r="S21" s="102"/>
       <c r="T21" s="103"/>
       <c r="U21" s="37"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" ht="25.5">
       <c r="B22" s="34"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="106"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="116"/>
+      <c r="T22" s="117"/>
       <c r="U22" s="37"/>
     </row>
-    <row r="23" spans="2:21" ht="25.5">
+    <row r="23" spans="2:21">
       <c r="B23" s="34"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="95"/>
+      <c r="C23" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="95" t="s">
+        <v>133</v>
+      </c>
       <c r="S23" s="96"/>
       <c r="T23" s="97"/>
       <c r="U23" s="37"/>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" ht="25.5">
       <c r="B24" s="34"/>
-      <c r="C24" s="98" t="s">
-        <v>134</v>
-      </c>
+      <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="100"/>
       <c r="F24" s="98" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G24" s="99"/>
       <c r="H24" s="100"/>
       <c r="I24" s="98" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="J24" s="99"/>
       <c r="K24" s="100"/>
       <c r="L24" s="98" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="M24" s="99"/>
       <c r="N24" s="100"/>
       <c r="O24" s="98" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="P24" s="99"/>
       <c r="Q24" s="100"/>
-      <c r="R24" s="98" t="s">
-        <v>139</v>
-      </c>
+      <c r="R24" s="98"/>
       <c r="S24" s="99"/>
       <c r="T24" s="100"/>
       <c r="U24" s="37"/>
     </row>
-    <row r="25" spans="2:21" ht="25.5">
+    <row r="25" spans="2:21">
       <c r="B25" s="34"/>
       <c r="C25" s="101"/>
       <c r="D25" s="102"/>
       <c r="E25" s="103"/>
       <c r="F25" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G25" s="102"/>
       <c r="H25" s="103"/>
-      <c r="I25" s="101"/>
+      <c r="I25" s="101" t="s">
+        <v>111</v>
+      </c>
       <c r="J25" s="102"/>
       <c r="K25" s="103"/>
-      <c r="L25" s="101"/>
+      <c r="L25" s="101" t="s">
+        <v>111</v>
+      </c>
       <c r="M25" s="102"/>
       <c r="N25" s="103"/>
       <c r="O25" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P25" s="102"/>
       <c r="Q25" s="103"/>
-      <c r="R25" s="101" t="s">
-        <v>110</v>
-      </c>
+      <c r="R25" s="101"/>
       <c r="S25" s="102"/>
       <c r="T25" s="103"/>
       <c r="U25" s="37"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" ht="25.5">
       <c r="B26" s="34"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="S26" s="105"/>
-      <c r="T26" s="106"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="117"/>
       <c r="U26" s="37"/>
     </row>
-    <row r="27" spans="2:21" ht="25.5">
+    <row r="27" spans="2:21">
       <c r="B27" s="34"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
+      <c r="C27" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="96"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="96"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
       <c r="R27" s="95" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="S27" s="96"/>
       <c r="T27" s="97"/>
       <c r="U27" s="37"/>
     </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="38"/>
-      <c r="C28" s="107" t="s">
+    <row r="28" spans="2:21" ht="25.5">
+      <c r="B28" s="34"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="37"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="34"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" s="102"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="37"/>
+    </row>
+    <row r="30" spans="2:21" ht="25.5">
+      <c r="B30" s="34"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="116"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="37"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="38"/>
+      <c r="C31" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="107" t="s">
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="107" t="s">
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="108"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="107" t="s">
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="107" t="s">
+      <c r="M31" s="105"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="107" t="s">
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="108"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="40"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="E32" s="11" t="s">
+      <c r="S31" s="105"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="40"/>
+    </row>
+    <row r="35" spans="5:15">
+      <c r="E35" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="5:15">
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
-    </row>
-    <row r="36" spans="5:15">
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" s="37"/>
-    </row>
-    <row r="37" spans="5:15">
-      <c r="E37" s="34"/>
-      <c r="F37" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="37"/>
-    </row>
     <row r="38" spans="5:15">
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="37"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="33"/>
     </row>
     <row r="39" spans="5:15">
       <c r="E39" s="34"/>
-      <c r="F39" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="99"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" s="99"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="M39" s="99"/>
-      <c r="N39" s="100"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="O39" s="37"/>
     </row>
-    <row r="40" spans="5:15" ht="25.5">
+    <row r="40" spans="5:15">
       <c r="E40" s="34"/>
-      <c r="F40" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="M40" s="102"/>
-      <c r="N40" s="103"/>
+      <c r="F40" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="37"/>
     </row>
     <row r="41" spans="5:15">
       <c r="E41" s="34"/>
-      <c r="F41" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="105"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="105"/>
-      <c r="N41" s="106"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
       <c r="O41" s="37"/>
     </row>
     <row r="42" spans="5:15">
       <c r="E42" s="34"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
+      <c r="F42" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="96"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
       <c r="O42" s="37"/>
     </row>
-    <row r="43" spans="5:15">
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="40"/>
+    <row r="43" spans="5:15" ht="25.5">
+      <c r="E43" s="34"/>
+      <c r="F43" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="99"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" s="99"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="M43" s="99"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="37"/>
+    </row>
+    <row r="44" spans="5:15">
+      <c r="E44" s="34"/>
+      <c r="F44" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="102"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="37"/>
+    </row>
+    <row r="45" spans="5:15">
+      <c r="E45" s="34"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="37"/>
+    </row>
+    <row r="46" spans="5:15">
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R27:T27"/>
     <mergeCell ref="R28:T28"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:K10"/>
-    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:T29"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R24:T24"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="R26:T26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="L12:N13"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{BC3F3989-F201-4249-AB1D-31B768718851}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{BC3F3989-F201-4249-AB1D-31B768718851}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
